--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori1/17/word_level_predictions_17.xlsx
@@ -3986,158 +3986,158 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" t="n">
         <v>5</v>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" t="n">
         <v>5</v>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" t="n">
         <v>5</v>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D71" s="2" t="n">
+      <c r="D71" t="n">
         <v>2</v>
       </c>
-      <c r="E71" s="2" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L71" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12566,158 +12566,158 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>19</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>19</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>19</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>9</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori1/17/word_level_predictions_17.xlsx
@@ -3986,158 +3986,158 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="inlineStr">
+      <c r="D69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="D70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12566,158 +12566,158 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D234" t="n">
+      <c r="D234" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E234" t="inlineStr">
+      <c r="E234" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
+      <c r="I234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
+      <c r="I235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>19</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="I236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
